--- a/artfynd/A 63491-2020.xlsx
+++ b/artfynd/A 63491-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88042575</v>
+        <v>88042571</v>
       </c>
       <c r="B2" t="n">
-        <v>94121</v>
+        <v>89356</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401585.1169067804</v>
+        <v>401467.8944965442</v>
       </c>
       <c r="R2" t="n">
-        <v>6660693.984798764</v>
+        <v>6660836.946491199</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88042571</v>
+        <v>88042580</v>
       </c>
       <c r="B3" t="n">
-        <v>89356</v>
+        <v>94121</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401467.8944965442</v>
+        <v>401426.0083459655</v>
       </c>
       <c r="R3" t="n">
-        <v>6660836.946491199</v>
+        <v>6660767.15908254</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>88042587</v>
+        <v>88042577</v>
       </c>
       <c r="B4" t="n">
-        <v>94121</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>402072.8906266145</v>
+        <v>401472.0542245907</v>
       </c>
       <c r="R4" t="n">
-        <v>6660546.13208588</v>
+        <v>6660936.206280074</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>88042573</v>
+        <v>88042570</v>
       </c>
       <c r="B5" t="n">
         <v>94121</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>401628.0818258527</v>
+        <v>401456.0475465701</v>
       </c>
       <c r="R5" t="n">
-        <v>6660804.195007879</v>
+        <v>6660786.82821779</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88042580</v>
+        <v>88042584</v>
       </c>
       <c r="B6" t="n">
         <v>94121</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>401426.0083459655</v>
+        <v>401460.8001688122</v>
       </c>
       <c r="R6" t="n">
-        <v>6660767.15908254</v>
+        <v>6660796.188836097</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88042582</v>
+        <v>88042575</v>
       </c>
       <c r="B7" t="n">
         <v>94121</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>402104.0025583604</v>
+        <v>401585.1169067804</v>
       </c>
       <c r="R7" t="n">
-        <v>6660549.798474666</v>
+        <v>6660693.984798764</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88042577</v>
+        <v>88042573</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>94121</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>401472.0542245907</v>
+        <v>401628.0818258527</v>
       </c>
       <c r="R8" t="n">
-        <v>6660936.206280074</v>
+        <v>6660804.195007879</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>88042570</v>
+        <v>88042578</v>
       </c>
       <c r="B9" t="n">
         <v>94121</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>401456.0475465701</v>
+        <v>401610.2002120143</v>
       </c>
       <c r="R9" t="n">
-        <v>6660786.82821779</v>
+        <v>6660790.191765637</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88042584</v>
+        <v>88042587</v>
       </c>
       <c r="B10" t="n">
         <v>94121</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>401460.8001688122</v>
+        <v>402072.8906266145</v>
       </c>
       <c r="R10" t="n">
-        <v>6660796.188836097</v>
+        <v>6660546.13208588</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88042578</v>
+        <v>88042582</v>
       </c>
       <c r="B11" t="n">
         <v>94121</v>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>401610.2002120143</v>
+        <v>402104.0025583604</v>
       </c>
       <c r="R11" t="n">
-        <v>6660790.191765637</v>
+        <v>6660549.798474666</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
